--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D631"/>
+  <dimension ref="A1:D632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7372,1905 +7372,1919 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>44574</v>
+        <v>45301</v>
       </c>
       <c r="C496" t="n">
         <v>100</v>
       </c>
       <c r="D496" t="n">
-        <v>0.171367</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C497" t="n">
         <v>100</v>
       </c>
       <c r="D497" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C498" t="n">
         <v>100</v>
       </c>
       <c r="D498" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C499" t="n">
         <v>100</v>
       </c>
       <c r="D499" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C631" t="n">
+        <v>100</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.198253</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
         <v>493</v>
       </c>
-      <c r="B631" s="2" t="n">
+      <c r="B632" s="2" t="n">
         <v>45290</v>
       </c>
-      <c r="C631" t="n">
-        <v>100</v>
-      </c>
-      <c r="D631" t="n">
+      <c r="C632" t="n">
+        <v>100</v>
+      </c>
+      <c r="D632" t="n">
         <v>0.197708</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D632"/>
+  <dimension ref="A1:D633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9288,6 +9288,20 @@
         <v>0.197708</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C633" t="n">
+        <v>100</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.199391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D633"/>
+  <dimension ref="A1:D634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7386,1919 +7386,1933 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>44574</v>
+        <v>45302</v>
       </c>
       <c r="C497" t="n">
         <v>100</v>
       </c>
       <c r="D497" t="n">
-        <v>0.171367</v>
+        <v>0.197255</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C498" t="n">
         <v>100</v>
       </c>
       <c r="D498" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C499" t="n">
         <v>100</v>
       </c>
       <c r="D499" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C633" t="n">
+        <v>100</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.197708</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
         <v>494</v>
       </c>
-      <c r="B633" s="2" t="n">
+      <c r="B634" s="2" t="n">
         <v>45301</v>
       </c>
-      <c r="C633" t="n">
-        <v>100</v>
-      </c>
-      <c r="D633" t="n">
+      <c r="C634" t="n">
+        <v>100</v>
+      </c>
+      <c r="D634" t="n">
         <v>0.199391</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D634"/>
+  <dimension ref="A1:D635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7400,1919 +7400,1933 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44574</v>
+        <v>45303</v>
       </c>
       <c r="C498" t="n">
         <v>100</v>
       </c>
       <c r="D498" t="n">
-        <v>0.171367</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C499" t="n">
         <v>100</v>
       </c>
       <c r="D499" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C634" t="n">
+        <v>100</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.197708</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
         <v>494</v>
       </c>
-      <c r="B634" s="2" t="n">
+      <c r="B635" s="2" t="n">
         <v>45301</v>
       </c>
-      <c r="C634" t="n">
-        <v>100</v>
-      </c>
-      <c r="D634" t="n">
+      <c r="C635" t="n">
+        <v>100</v>
+      </c>
+      <c r="D635" t="n">
         <v>0.199391</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D635"/>
+  <dimension ref="A1:D637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7414,1920 +7414,1948 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44574</v>
+        <v>45304</v>
       </c>
       <c r="C499" t="n">
         <v>100</v>
       </c>
       <c r="D499" t="n">
-        <v>0.171367</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C635" t="n">
+        <v>100</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.197708</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
         <v>494</v>
       </c>
-      <c r="B635" s="2" t="n">
+      <c r="B636" s="2" t="n">
         <v>45301</v>
       </c>
-      <c r="C635" t="n">
-        <v>100</v>
-      </c>
-      <c r="D635" t="n">
+      <c r="C636" t="n">
+        <v>100</v>
+      </c>
+      <c r="D636" t="n">
         <v>0.199391</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C637" t="n">
+        <v>100</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.195839</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D637"/>
+  <dimension ref="A1:D638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9358,6 +9358,20 @@
         <v>0.195839</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C638" t="n">
+        <v>100</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.194501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D638"/>
+  <dimension ref="A1:D639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7428,1947 +7428,1961 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44574</v>
+        <v>45307</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.171367</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C638" t="n">
+        <v>100</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.195839</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
         <v>497</v>
       </c>
-      <c r="B638" s="2" t="n">
+      <c r="B639" s="2" t="n">
         <v>45304</v>
       </c>
-      <c r="C638" t="n">
-        <v>100</v>
-      </c>
-      <c r="D638" t="n">
+      <c r="C639" t="n">
+        <v>100</v>
+      </c>
+      <c r="D639" t="n">
         <v>0.194501</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D639"/>
+  <dimension ref="A1:D641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7442,1948 +7442,1976 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44574</v>
+        <v>45308</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.171367</v>
+        <v>0.194177</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C639" t="n">
+        <v>100</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.195839</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
         <v>497</v>
       </c>
-      <c r="B639" s="2" t="n">
+      <c r="B640" s="2" t="n">
         <v>45304</v>
       </c>
-      <c r="C639" t="n">
-        <v>100</v>
-      </c>
-      <c r="D639" t="n">
+      <c r="C640" t="n">
+        <v>100</v>
+      </c>
+      <c r="D640" t="n">
         <v>0.194501</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C641" t="n">
+        <v>100</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.194264</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D641"/>
+  <dimension ref="A1:D642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7456,1961 +7456,1975 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44574</v>
+        <v>45309</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.171367</v>
+        <v>0.195798</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C641" t="n">
+        <v>100</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.194501</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
         <v>498</v>
       </c>
-      <c r="B641" s="2" t="n">
+      <c r="B642" s="2" t="n">
         <v>45307</v>
       </c>
-      <c r="C641" t="n">
-        <v>100</v>
-      </c>
-      <c r="D641" t="n">
+      <c r="C642" t="n">
+        <v>100</v>
+      </c>
+      <c r="D642" t="n">
         <v>0.194264</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D642"/>
+  <dimension ref="A1:D643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7470,1961 +7470,1975 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44574</v>
+        <v>45310</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.171367</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C642" t="n">
+        <v>100</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.194501</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
         <v>498</v>
       </c>
-      <c r="B642" s="2" t="n">
+      <c r="B643" s="2" t="n">
         <v>45307</v>
       </c>
-      <c r="C642" t="n">
-        <v>100</v>
-      </c>
-      <c r="D642" t="n">
+      <c r="C643" t="n">
+        <v>100</v>
+      </c>
+      <c r="D643" t="n">
         <v>0.194264</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D643"/>
+  <dimension ref="A1:D645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7484,1962 +7484,1990 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2</v>
+        <v>502</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44574</v>
+        <v>45311</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.171367</v>
+        <v>0.196081</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C643" t="n">
+        <v>100</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.194501</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
         <v>498</v>
       </c>
-      <c r="B643" s="2" t="n">
+      <c r="B644" s="2" t="n">
         <v>45307</v>
       </c>
-      <c r="C643" t="n">
-        <v>100</v>
-      </c>
-      <c r="D643" t="n">
+      <c r="C644" t="n">
+        <v>100</v>
+      </c>
+      <c r="D644" t="n">
         <v>0.194264</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C645" t="n">
+        <v>100</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.195741</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D645"/>
+  <dimension ref="A1:D646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7498,1975 +7498,1989 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2</v>
+        <v>503</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44574</v>
+        <v>45314</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.171367</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C645" t="n">
+        <v>100</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.194264</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="B645" s="2" t="n">
+      <c r="B646" s="2" t="n">
         <v>45310</v>
       </c>
-      <c r="C645" t="n">
-        <v>100</v>
-      </c>
-      <c r="D645" t="n">
+      <c r="C646" t="n">
+        <v>100</v>
+      </c>
+      <c r="D646" t="n">
         <v>0.195741</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D646"/>
+  <dimension ref="A1:D648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7512,1976 +7512,2004 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2</v>
+        <v>504</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44574</v>
+        <v>45315</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.171367</v>
+        <v>0.195983</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C646" t="n">
+        <v>100</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.194264</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="B646" s="2" t="n">
+      <c r="B647" s="2" t="n">
         <v>45310</v>
       </c>
-      <c r="C646" t="n">
-        <v>100</v>
-      </c>
-      <c r="D646" t="n">
+      <c r="C647" t="n">
+        <v>100</v>
+      </c>
+      <c r="D647" t="n">
         <v>0.195741</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C648" t="n">
+        <v>100</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.195477</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D648"/>
+  <dimension ref="A1:D649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7526,1989 +7526,2003 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44574</v>
+        <v>45316</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.171367</v>
+        <v>0.19793</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C648" t="n">
+        <v>100</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.195741</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
         <v>503</v>
       </c>
-      <c r="B648" s="2" t="n">
+      <c r="B649" s="2" t="n">
         <v>45314</v>
       </c>
-      <c r="C648" t="n">
-        <v>100</v>
-      </c>
-      <c r="D648" t="n">
+      <c r="C649" t="n">
+        <v>100</v>
+      </c>
+      <c r="D649" t="n">
         <v>0.195477</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D649"/>
+  <dimension ref="A1:D507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7538,1994 +7538,6 @@
         <v>0.19793</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B508" s="2" t="n">
-        <v>44574</v>
-      </c>
-      <c r="C508" t="n">
-        <v>100</v>
-      </c>
-      <c r="D508" t="n">
-        <v>0.171367</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B509" s="2" t="n">
-        <v>44579</v>
-      </c>
-      <c r="C509" t="n">
-        <v>100</v>
-      </c>
-      <c r="D509" t="n">
-        <v>0.174625</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B510" s="2" t="n">
-        <v>44581</v>
-      </c>
-      <c r="C510" t="n">
-        <v>100</v>
-      </c>
-      <c r="D510" t="n">
-        <v>0.175964</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B511" s="2" t="n">
-        <v>44583</v>
-      </c>
-      <c r="C511" t="n">
-        <v>100</v>
-      </c>
-      <c r="D511" t="n">
-        <v>0.175815</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B512" s="2" t="n">
-        <v>44587</v>
-      </c>
-      <c r="C512" t="n">
-        <v>100</v>
-      </c>
-      <c r="D512" t="n">
-        <v>0.180165</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B513" s="2" t="n">
-        <v>44588</v>
-      </c>
-      <c r="C513" t="n">
-        <v>100</v>
-      </c>
-      <c r="D513" t="n">
-        <v>0.181167</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B514" s="2" t="n">
-        <v>44596</v>
-      </c>
-      <c r="C514" t="n">
-        <v>100</v>
-      </c>
-      <c r="D514" t="n">
-        <v>0.176308</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B515" s="2" t="n">
-        <v>44597</v>
-      </c>
-      <c r="C515" t="n">
-        <v>100</v>
-      </c>
-      <c r="D515" t="n">
-        <v>0.175942</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B516" s="2" t="n">
-        <v>44600</v>
-      </c>
-      <c r="C516" t="n">
-        <v>100</v>
-      </c>
-      <c r="D516" t="n">
-        <v>0.175695</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B517" s="2" t="n">
-        <v>44601</v>
-      </c>
-      <c r="C517" t="n">
-        <v>100</v>
-      </c>
-      <c r="D517" t="n">
-        <v>0.175965</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B518" s="2" t="n">
-        <v>44602</v>
-      </c>
-      <c r="C518" t="n">
-        <v>100</v>
-      </c>
-      <c r="D518" t="n">
-        <v>0.17559</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B519" s="2" t="n">
-        <v>44608</v>
-      </c>
-      <c r="C519" t="n">
-        <v>100</v>
-      </c>
-      <c r="D519" t="n">
-        <v>0.176945</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B520" s="2" t="n">
-        <v>44615</v>
-      </c>
-      <c r="C520" t="n">
-        <v>100</v>
-      </c>
-      <c r="D520" t="n">
-        <v>0.184681</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B521" s="2" t="n">
-        <v>44618</v>
-      </c>
-      <c r="C521" t="n">
-        <v>100</v>
-      </c>
-      <c r="D521" t="n">
-        <v>0.180019</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B522" s="2" t="n">
-        <v>44622</v>
-      </c>
-      <c r="C522" t="n">
-        <v>100</v>
-      </c>
-      <c r="D522" t="n">
-        <v>0.186621</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B523" s="2" t="n">
-        <v>44631</v>
-      </c>
-      <c r="C523" t="n">
-        <v>100</v>
-      </c>
-      <c r="D523" t="n">
-        <v>0.231488</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B524" s="2" t="n">
-        <v>44635</v>
-      </c>
-      <c r="C524" t="n">
-        <v>100</v>
-      </c>
-      <c r="D524" t="n">
-        <v>0.224903</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B525" s="2" t="n">
-        <v>44637</v>
-      </c>
-      <c r="C525" t="n">
-        <v>100</v>
-      </c>
-      <c r="D525" t="n">
-        <v>0.212006</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B526" s="2" t="n">
-        <v>44638</v>
-      </c>
-      <c r="C526" t="n">
-        <v>100</v>
-      </c>
-      <c r="D526" t="n">
-        <v>0.206141</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B527" s="2" t="n">
-        <v>44650</v>
-      </c>
-      <c r="C527" t="n">
-        <v>100</v>
-      </c>
-      <c r="D527" t="n">
-        <v>0.184763</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B528" s="2" t="n">
-        <v>44659</v>
-      </c>
-      <c r="C528" t="n">
-        <v>100</v>
-      </c>
-      <c r="D528" t="n">
-        <v>0.164975</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B529" s="2" t="n">
-        <v>44671</v>
-      </c>
-      <c r="C529" t="n">
-        <v>100</v>
-      </c>
-      <c r="D529" t="n">
-        <v>0.175678</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B530" s="2" t="n">
-        <v>44680</v>
-      </c>
-      <c r="C530" t="n">
-        <v>100</v>
-      </c>
-      <c r="D530" t="n">
-        <v>0.160817</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B531" s="2" t="n">
-        <v>44687</v>
-      </c>
-      <c r="C531" t="n">
-        <v>100</v>
-      </c>
-      <c r="D531" t="n">
-        <v>0.151626</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B532" s="2" t="n">
-        <v>44688</v>
-      </c>
-      <c r="C532" t="n">
-        <v>100</v>
-      </c>
-      <c r="D532" t="n">
-        <v>0.157514</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B533" s="2" t="n">
-        <v>44701</v>
-      </c>
-      <c r="C533" t="n">
-        <v>100</v>
-      </c>
-      <c r="D533" t="n">
-        <v>0.144221</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B534" s="2" t="n">
-        <v>44702</v>
-      </c>
-      <c r="C534" t="n">
-        <v>100</v>
-      </c>
-      <c r="D534" t="n">
-        <v>0.136497</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B535" s="2" t="n">
-        <v>44728</v>
-      </c>
-      <c r="C535" t="n">
-        <v>100</v>
-      </c>
-      <c r="D535" t="n">
-        <v>0.129983</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B536" s="2" t="n">
-        <v>44737</v>
-      </c>
-      <c r="C536" t="n">
-        <v>100</v>
-      </c>
-      <c r="D536" t="n">
-        <v>0.114721</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B537" s="2" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C537" t="n">
-        <v>100</v>
-      </c>
-      <c r="D537" t="n">
-        <v>0.11291</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B538" s="2" t="n">
-        <v>44756</v>
-      </c>
-      <c r="C538" t="n">
-        <v>100</v>
-      </c>
-      <c r="D538" t="n">
-        <v>0.123647</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B539" s="2" t="n">
-        <v>44757</v>
-      </c>
-      <c r="C539" t="n">
-        <v>100</v>
-      </c>
-      <c r="D539" t="n">
-        <v>0.122411</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B540" s="2" t="n">
-        <v>44758</v>
-      </c>
-      <c r="C540" t="n">
-        <v>100</v>
-      </c>
-      <c r="D540" t="n">
-        <v>0.120889</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B541" s="2" t="n">
-        <v>44761</v>
-      </c>
-      <c r="C541" t="n">
-        <v>100</v>
-      </c>
-      <c r="D541" t="n">
-        <v>0.117746</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B542" s="2" t="n">
-        <v>44768</v>
-      </c>
-      <c r="C542" t="n">
-        <v>100</v>
-      </c>
-      <c r="D542" t="n">
-        <v>0.119414</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B543" s="2" t="n">
-        <v>44769</v>
-      </c>
-      <c r="C543" t="n">
-        <v>100</v>
-      </c>
-      <c r="D543" t="n">
-        <v>0.123257</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B544" s="2" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C544" t="n">
-        <v>100</v>
-      </c>
-      <c r="D544" t="n">
-        <v>0.127564</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B545" s="2" t="n">
-        <v>44807</v>
-      </c>
-      <c r="C545" t="n">
-        <v>100</v>
-      </c>
-      <c r="D545" t="n">
-        <v>0.12806</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B546" s="2" t="n">
-        <v>44814</v>
-      </c>
-      <c r="C546" t="n">
-        <v>100</v>
-      </c>
-      <c r="D546" t="n">
-        <v>0.126649</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B547" s="2" t="n">
-        <v>44821</v>
-      </c>
-      <c r="C547" t="n">
-        <v>100</v>
-      </c>
-      <c r="D547" t="n">
-        <v>0.126598</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B548" s="2" t="n">
-        <v>44828</v>
-      </c>
-      <c r="C548" t="n">
-        <v>100</v>
-      </c>
-      <c r="D548" t="n">
-        <v>0.120718</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B549" s="2" t="n">
-        <v>44834</v>
-      </c>
-      <c r="C549" t="n">
-        <v>100</v>
-      </c>
-      <c r="D549" t="n">
-        <v>0.119763</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B550" s="2" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C550" t="n">
-        <v>100</v>
-      </c>
-      <c r="D550" t="n">
-        <v>0.120758</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B551" s="2" t="n">
-        <v>44845</v>
-      </c>
-      <c r="C551" t="n">
-        <v>100</v>
-      </c>
-      <c r="D551" t="n">
-        <v>0.132007</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B552" s="2" t="n">
-        <v>44846</v>
-      </c>
-      <c r="C552" t="n">
-        <v>100</v>
-      </c>
-      <c r="D552" t="n">
-        <v>0.13453</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B553" s="2" t="n">
-        <v>44863</v>
-      </c>
-      <c r="C553" t="n">
-        <v>100</v>
-      </c>
-      <c r="D553" t="n">
-        <v>0.132229</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B554" s="2" t="n">
-        <v>44877</v>
-      </c>
-      <c r="C554" t="n">
-        <v>100</v>
-      </c>
-      <c r="D554" t="n">
-        <v>0.128281</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B555" s="2" t="n">
-        <v>44887</v>
-      </c>
-      <c r="C555" t="n">
-        <v>100</v>
-      </c>
-      <c r="D555" t="n">
-        <v>0.132315</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B556" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C556" t="n">
-        <v>100</v>
-      </c>
-      <c r="D556" t="n">
-        <v>0.132596</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B557" s="2" t="n">
-        <v>44902</v>
-      </c>
-      <c r="C557" t="n">
-        <v>100</v>
-      </c>
-      <c r="D557" t="n">
-        <v>0.134088</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B558" s="2" t="n">
-        <v>44922</v>
-      </c>
-      <c r="C558" t="n">
-        <v>100</v>
-      </c>
-      <c r="D558" t="n">
-        <v>0.148167</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B559" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="C559" t="n">
-        <v>100</v>
-      </c>
-      <c r="D559" t="n">
-        <v>0.154848</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B560" s="2" t="n">
-        <v>44943</v>
-      </c>
-      <c r="C560" t="n">
-        <v>100</v>
-      </c>
-      <c r="D560" t="n">
-        <v>0.147719</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B561" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="C561" t="n">
-        <v>100</v>
-      </c>
-      <c r="D561" t="n">
-        <v>0.148403</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B562" s="2" t="n">
-        <v>44947</v>
-      </c>
-      <c r="C562" t="n">
-        <v>100</v>
-      </c>
-      <c r="D562" t="n">
-        <v>0.14838</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B563" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="C563" t="n">
-        <v>100</v>
-      </c>
-      <c r="D563" t="n">
-        <v>0.15227</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B564" s="2" t="n">
-        <v>44961</v>
-      </c>
-      <c r="C564" t="n">
-        <v>100</v>
-      </c>
-      <c r="D564" t="n">
-        <v>0.153037</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B565" s="2" t="n">
-        <v>44966</v>
-      </c>
-      <c r="C565" t="n">
-        <v>100</v>
-      </c>
-      <c r="D565" t="n">
-        <v>0.156629</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B566" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="C566" t="n">
-        <v>100</v>
-      </c>
-      <c r="D566" t="n">
-        <v>0.15998</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B567" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="C567" t="n">
-        <v>100</v>
-      </c>
-      <c r="D567" t="n">
-        <v>0.167217</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B568" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C568" t="n">
-        <v>100</v>
-      </c>
-      <c r="D568" t="n">
-        <v>0.16764</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B569" s="2" t="n">
-        <v>44989</v>
-      </c>
-      <c r="C569" t="n">
-        <v>100</v>
-      </c>
-      <c r="D569" t="n">
-        <v>0.173195</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B570" s="2" t="n">
-        <v>44992</v>
-      </c>
-      <c r="C570" t="n">
-        <v>100</v>
-      </c>
-      <c r="D570" t="n">
-        <v>0.175078</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B571" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="C571" t="n">
-        <v>100</v>
-      </c>
-      <c r="D571" t="n">
-        <v>0.169202</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B572" s="2" t="n">
-        <v>45000</v>
-      </c>
-      <c r="C572" t="n">
-        <v>100</v>
-      </c>
-      <c r="D572" t="n">
-        <v>0.164658</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B573" s="2" t="n">
-        <v>45003</v>
-      </c>
-      <c r="C573" t="n">
-        <v>100</v>
-      </c>
-      <c r="D573" t="n">
-        <v>0.164334</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B574" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="C574" t="n">
-        <v>100</v>
-      </c>
-      <c r="D574" t="n">
-        <v>0.16763</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B575" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="C575" t="n">
-        <v>100</v>
-      </c>
-      <c r="D575" t="n">
-        <v>0.165343</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B576" s="2" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C576" t="n">
-        <v>100</v>
-      </c>
-      <c r="D576" t="n">
-        <v>0.169183</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B577" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C577" t="n">
-        <v>100</v>
-      </c>
-      <c r="D577" t="n">
-        <v>0.171918</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B578" s="2" t="n">
-        <v>45020</v>
-      </c>
-      <c r="C578" t="n">
-        <v>100</v>
-      </c>
-      <c r="D578" t="n">
-        <v>0.172569</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B579" s="2" t="n">
-        <v>45021</v>
-      </c>
-      <c r="C579" t="n">
-        <v>100</v>
-      </c>
-      <c r="D579" t="n">
-        <v>0.176023</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B580" s="2" t="n">
-        <v>45022</v>
-      </c>
-      <c r="C580" t="n">
-        <v>100</v>
-      </c>
-      <c r="D580" t="n">
-        <v>0.176898</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B581" s="2" t="n">
-        <v>45023</v>
-      </c>
-      <c r="C581" t="n">
-        <v>100</v>
-      </c>
-      <c r="D581" t="n">
-        <v>0.180558</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B582" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="C582" t="n">
-        <v>100</v>
-      </c>
-      <c r="D582" t="n">
-        <v>0.18421</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B583" s="2" t="n">
-        <v>45029</v>
-      </c>
-      <c r="C583" t="n">
-        <v>100</v>
-      </c>
-      <c r="D583" t="n">
-        <v>0.182909</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B584" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="C584" t="n">
-        <v>100</v>
-      </c>
-      <c r="D584" t="n">
-        <v>0.180312</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B585" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="C585" t="n">
-        <v>100</v>
-      </c>
-      <c r="D585" t="n">
-        <v>0.179385</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B586" s="2" t="n">
-        <v>45045</v>
-      </c>
-      <c r="C586" t="n">
-        <v>100</v>
-      </c>
-      <c r="D586" t="n">
-        <v>0.176474</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B587" s="2" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C587" t="n">
-        <v>100</v>
-      </c>
-      <c r="D587" t="n">
-        <v>0.172235</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B588" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C588" t="n">
-        <v>100</v>
-      </c>
-      <c r="D588" t="n">
-        <v>0.177359</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B589" s="2" t="n">
-        <v>45064</v>
-      </c>
-      <c r="C589" t="n">
-        <v>100</v>
-      </c>
-      <c r="D589" t="n">
-        <v>0.179824</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B590" s="2" t="n">
-        <v>45072</v>
-      </c>
-      <c r="C590" t="n">
-        <v>100</v>
-      </c>
-      <c r="D590" t="n">
-        <v>0.179966</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B591" s="2" t="n">
-        <v>45076</v>
-      </c>
-      <c r="C591" t="n">
-        <v>100</v>
-      </c>
-      <c r="D591" t="n">
-        <v>0.179626</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B592" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="C592" t="n">
-        <v>100</v>
-      </c>
-      <c r="D592" t="n">
-        <v>0.181544</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B593" s="2" t="n">
-        <v>45080</v>
-      </c>
-      <c r="C593" t="n">
-        <v>100</v>
-      </c>
-      <c r="D593" t="n">
-        <v>0.180236</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B594" s="2" t="n">
-        <v>45083</v>
-      </c>
-      <c r="C594" t="n">
-        <v>100</v>
-      </c>
-      <c r="D594" t="n">
-        <v>0.181579</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B595" s="2" t="n">
-        <v>45085</v>
-      </c>
-      <c r="C595" t="n">
-        <v>100</v>
-      </c>
-      <c r="D595" t="n">
-        <v>0.181944</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B596" s="2" t="n">
-        <v>45092</v>
-      </c>
-      <c r="C596" t="n">
-        <v>100</v>
-      </c>
-      <c r="D596" t="n">
-        <v>0.187965</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B597" s="2" t="n">
-        <v>45093</v>
-      </c>
-      <c r="C597" t="n">
-        <v>100</v>
-      </c>
-      <c r="D597" t="n">
-        <v>0.186514</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B598" s="2" t="n">
-        <v>45097</v>
-      </c>
-      <c r="C598" t="n">
-        <v>100</v>
-      </c>
-      <c r="D598" t="n">
-        <v>0.186227</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B599" s="2" t="n">
-        <v>45098</v>
-      </c>
-      <c r="C599" t="n">
-        <v>100</v>
-      </c>
-      <c r="D599" t="n">
-        <v>0.188379</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B600" s="2" t="n">
-        <v>45104</v>
-      </c>
-      <c r="C600" t="n">
-        <v>100</v>
-      </c>
-      <c r="D600" t="n">
-        <v>0.189384</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B601" s="2" t="n">
-        <v>45106</v>
-      </c>
-      <c r="C601" t="n">
-        <v>100</v>
-      </c>
-      <c r="D601" t="n">
-        <v>0.190113</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B602" s="2" t="n">
-        <v>45118</v>
-      </c>
-      <c r="C602" t="n">
-        <v>100</v>
-      </c>
-      <c r="D602" t="n">
-        <v>0.20614</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B603" s="2" t="n">
-        <v>45125</v>
-      </c>
-      <c r="C603" t="n">
-        <v>100</v>
-      </c>
-      <c r="D603" t="n">
-        <v>0.202521</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B604" s="2" t="n">
-        <v>45129</v>
-      </c>
-      <c r="C604" t="n">
-        <v>100</v>
-      </c>
-      <c r="D604" t="n">
-        <v>0.203574</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B605" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C605" t="n">
-        <v>100</v>
-      </c>
-      <c r="D605" t="n">
-        <v>0.205511</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B606" s="2" t="n">
-        <v>45142</v>
-      </c>
-      <c r="C606" t="n">
-        <v>100</v>
-      </c>
-      <c r="D606" t="n">
-        <v>0.211376</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B607" s="2" t="n">
-        <v>45147</v>
-      </c>
-      <c r="C607" t="n">
-        <v>100</v>
-      </c>
-      <c r="D607" t="n">
-        <v>0.215242</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B608" s="2" t="n">
-        <v>45149</v>
-      </c>
-      <c r="C608" t="n">
-        <v>100</v>
-      </c>
-      <c r="D608" t="n">
-        <v>0.217959</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B609" s="2" t="n">
-        <v>45150</v>
-      </c>
-      <c r="C609" t="n">
-        <v>100</v>
-      </c>
-      <c r="D609" t="n">
-        <v>0.220674</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B610" s="2" t="n">
-        <v>45157</v>
-      </c>
-      <c r="C610" t="n">
-        <v>100</v>
-      </c>
-      <c r="D610" t="n">
-        <v>0.201655</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B611" s="2" t="n">
-        <v>45161</v>
-      </c>
-      <c r="C611" t="n">
-        <v>100</v>
-      </c>
-      <c r="D611" t="n">
-        <v>0.20807</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B612" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="C612" t="n">
-        <v>100</v>
-      </c>
-      <c r="D612" t="n">
-        <v>0.207889</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B613" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C613" t="n">
-        <v>100</v>
-      </c>
-      <c r="D613" t="n">
-        <v>0.208769</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B614" s="2" t="n">
-        <v>45175</v>
-      </c>
-      <c r="C614" t="n">
-        <v>100</v>
-      </c>
-      <c r="D614" t="n">
-        <v>0.212261</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B615" s="2" t="n">
-        <v>45178</v>
-      </c>
-      <c r="C615" t="n">
-        <v>100</v>
-      </c>
-      <c r="D615" t="n">
-        <v>0.210825</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B616" s="2" t="n">
-        <v>45182</v>
-      </c>
-      <c r="C616" t="n">
-        <v>100</v>
-      </c>
-      <c r="D616" t="n">
-        <v>0.204596</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B617" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="C617" t="n">
-        <v>100</v>
-      </c>
-      <c r="D617" t="n">
-        <v>0.208424</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B618" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="C618" t="n">
-        <v>100</v>
-      </c>
-      <c r="D618" t="n">
-        <v>0.207252</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B619" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="C619" t="n">
-        <v>100</v>
-      </c>
-      <c r="D619" t="n">
-        <v>0.202305</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B620" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="C620" t="n">
-        <v>100</v>
-      </c>
-      <c r="D620" t="n">
-        <v>0.203042</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B621" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="C621" t="n">
-        <v>100</v>
-      </c>
-      <c r="D621" t="n">
-        <v>0.202353</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B622" s="2" t="n">
-        <v>45202</v>
-      </c>
-      <c r="C622" t="n">
-        <v>100</v>
-      </c>
-      <c r="D622" t="n">
-        <v>0.207555</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B623" s="2" t="n">
-        <v>45203</v>
-      </c>
-      <c r="C623" t="n">
-        <v>100</v>
-      </c>
-      <c r="D623" t="n">
-        <v>0.207521</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B624" s="2" t="n">
-        <v>45204</v>
-      </c>
-      <c r="C624" t="n">
-        <v>100</v>
-      </c>
-      <c r="D624" t="n">
-        <v>0.208393</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B625" s="2" t="n">
-        <v>45206</v>
-      </c>
-      <c r="C625" t="n">
-        <v>100</v>
-      </c>
-      <c r="D625" t="n">
-        <v>0.210479</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B626" s="2" t="n">
-        <v>45212</v>
-      </c>
-      <c r="C626" t="n">
-        <v>100</v>
-      </c>
-      <c r="D626" t="n">
-        <v>0.203437</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B627" s="2" t="n">
-        <v>45218</v>
-      </c>
-      <c r="C627" t="n">
-        <v>100</v>
-      </c>
-      <c r="D627" t="n">
-        <v>0.204084</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B628" s="2" t="n">
-        <v>45220</v>
-      </c>
-      <c r="C628" t="n">
-        <v>100</v>
-      </c>
-      <c r="D628" t="n">
-        <v>0.200053</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B629" s="2" t="n">
-        <v>45224</v>
-      </c>
-      <c r="C629" t="n">
-        <v>100</v>
-      </c>
-      <c r="D629" t="n">
-        <v>0.195339</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B630" s="2" t="n">
-        <v>45225</v>
-      </c>
-      <c r="C630" t="n">
-        <v>100</v>
-      </c>
-      <c r="D630" t="n">
-        <v>0.195752</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B631" s="2" t="n">
-        <v>45238</v>
-      </c>
-      <c r="C631" t="n">
-        <v>100</v>
-      </c>
-      <c r="D631" t="n">
-        <v>0.199834</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B632" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="C632" t="n">
-        <v>100</v>
-      </c>
-      <c r="D632" t="n">
-        <v>0.196675</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B633" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="C633" t="n">
-        <v>100</v>
-      </c>
-      <c r="D633" t="n">
-        <v>0.195877</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B634" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="C634" t="n">
-        <v>100</v>
-      </c>
-      <c r="D634" t="n">
-        <v>0.192721</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B635" s="2" t="n">
-        <v>45252</v>
-      </c>
-      <c r="C635" t="n">
-        <v>100</v>
-      </c>
-      <c r="D635" t="n">
-        <v>0.189965</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B636" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="C636" t="n">
-        <v>100</v>
-      </c>
-      <c r="D636" t="n">
-        <v>0.192063</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B637" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="C637" t="n">
-        <v>100</v>
-      </c>
-      <c r="D637" t="n">
-        <v>0.192583</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B638" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="C638" t="n">
-        <v>100</v>
-      </c>
-      <c r="D638" t="n">
-        <v>0.191549</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B639" s="2" t="n">
-        <v>45267</v>
-      </c>
-      <c r="C639" t="n">
-        <v>100</v>
-      </c>
-      <c r="D639" t="n">
-        <v>0.201242</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B640" s="2" t="n">
-        <v>45276</v>
-      </c>
-      <c r="C640" t="n">
-        <v>100</v>
-      </c>
-      <c r="D640" t="n">
-        <v>0.196863</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B641" s="2" t="n">
-        <v>45282</v>
-      </c>
-      <c r="C641" t="n">
-        <v>100</v>
-      </c>
-      <c r="D641" t="n">
-        <v>0.201031</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B642" s="2" t="n">
-        <v>45289</v>
-      </c>
-      <c r="C642" t="n">
-        <v>100</v>
-      </c>
-      <c r="D642" t="n">
-        <v>0.198253</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B643" s="2" t="n">
-        <v>45290</v>
-      </c>
-      <c r="C643" t="n">
-        <v>100</v>
-      </c>
-      <c r="D643" t="n">
-        <v>0.197708</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B644" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="C644" t="n">
-        <v>100</v>
-      </c>
-      <c r="D644" t="n">
-        <v>0.199391</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B645" s="2" t="n">
-        <v>45303</v>
-      </c>
-      <c r="C645" t="n">
-        <v>100</v>
-      </c>
-      <c r="D645" t="n">
-        <v>0.195839</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B646" s="2" t="n">
-        <v>45304</v>
-      </c>
-      <c r="C646" t="n">
-        <v>100</v>
-      </c>
-      <c r="D646" t="n">
-        <v>0.194501</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B647" s="2" t="n">
-        <v>45307</v>
-      </c>
-      <c r="C647" t="n">
-        <v>100</v>
-      </c>
-      <c r="D647" t="n">
-        <v>0.194264</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B648" s="2" t="n">
-        <v>45310</v>
-      </c>
-      <c r="C648" t="n">
-        <v>100</v>
-      </c>
-      <c r="D648" t="n">
-        <v>0.195741</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B649" s="2" t="n">
-        <v>45314</v>
-      </c>
-      <c r="C649" t="n">
-        <v>100</v>
-      </c>
-      <c r="D649" t="n">
-        <v>0.195477</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D507"/>
+  <dimension ref="A1:D651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7538,6 +7538,2022 @@
         <v>0.19793</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C508" t="n">
+        <v>100</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.199035</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C509" t="n">
+        <v>100</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.200695</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="C510" t="n">
+        <v>100</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.171367</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="C511" t="n">
+        <v>100</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.174625</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C512" t="n">
+        <v>100</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.175964</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="C513" t="n">
+        <v>100</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.175815</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>44587</v>
+      </c>
+      <c r="C514" t="n">
+        <v>100</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.180165</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>44588</v>
+      </c>
+      <c r="C515" t="n">
+        <v>100</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.181167</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="C516" t="n">
+        <v>100</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.176308</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>44597</v>
+      </c>
+      <c r="C517" t="n">
+        <v>100</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.175942</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C518" t="n">
+        <v>100</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.175695</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="C519" t="n">
+        <v>100</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.175965</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="C520" t="n">
+        <v>100</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.17559</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="C521" t="n">
+        <v>100</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.176945</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="C522" t="n">
+        <v>100</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.184681</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C523" t="n">
+        <v>100</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.180019</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="C524" t="n">
+        <v>100</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.186621</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="C525" t="n">
+        <v>100</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.231488</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="C526" t="n">
+        <v>100</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.224903</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="C527" t="n">
+        <v>100</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.212006</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C528" t="n">
+        <v>100</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.206141</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C529" t="n">
+        <v>100</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.184763</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="C530" t="n">
+        <v>100</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.164975</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="C531" t="n">
+        <v>100</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.175678</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="C532" t="n">
+        <v>100</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.160817</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="C533" t="n">
+        <v>100</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.151626</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="C534" t="n">
+        <v>100</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.157514</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="C535" t="n">
+        <v>100</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.144221</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="C536" t="n">
+        <v>100</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.136497</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="C537" t="n">
+        <v>100</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.129983</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>44737</v>
+      </c>
+      <c r="C538" t="n">
+        <v>100</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.114721</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C539" t="n">
+        <v>100</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.11291</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="C540" t="n">
+        <v>100</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.123647</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="C541" t="n">
+        <v>100</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.122411</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>44758</v>
+      </c>
+      <c r="C542" t="n">
+        <v>100</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.120889</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="C543" t="n">
+        <v>100</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.117746</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="C544" t="n">
+        <v>100</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.119414</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="C545" t="n">
+        <v>100</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.123257</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C546" t="n">
+        <v>100</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.127564</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>44807</v>
+      </c>
+      <c r="C547" t="n">
+        <v>100</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.12806</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="C548" t="n">
+        <v>100</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.126649</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>44821</v>
+      </c>
+      <c r="C549" t="n">
+        <v>100</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.126598</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>44828</v>
+      </c>
+      <c r="C550" t="n">
+        <v>100</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.120718</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C551" t="n">
+        <v>100</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.119763</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C552" t="n">
+        <v>100</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.120758</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="C553" t="n">
+        <v>100</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.132007</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C554" t="n">
+        <v>100</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.13453</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>44863</v>
+      </c>
+      <c r="C555" t="n">
+        <v>100</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.132229</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="C556" t="n">
+        <v>100</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.128281</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C557" t="n">
+        <v>100</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.132315</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="C558" t="n">
+        <v>100</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.132596</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="C559" t="n">
+        <v>100</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.134088</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="C560" t="n">
+        <v>100</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.148167</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="C561" t="n">
+        <v>100</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.154848</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C562" t="n">
+        <v>100</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.147719</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C563" t="n">
+        <v>100</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.148403</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C564" t="n">
+        <v>100</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.14838</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C565" t="n">
+        <v>100</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.15227</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C566" t="n">
+        <v>100</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.153037</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C567" t="n">
+        <v>100</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.156629</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C568" t="n">
+        <v>100</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.15998</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="C569" t="n">
+        <v>100</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.167217</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C570" t="n">
+        <v>100</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.16764</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C571" t="n">
+        <v>100</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.173195</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C572" t="n">
+        <v>100</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.175078</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="C573" t="n">
+        <v>100</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.169202</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C574" t="n">
+        <v>100</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.164658</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="C575" t="n">
+        <v>100</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.164334</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C576" t="n">
+        <v>100</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.16763</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C577" t="n">
+        <v>100</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.165343</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C578" t="n">
+        <v>100</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0.169183</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C579" t="n">
+        <v>100</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.171918</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C580" t="n">
+        <v>100</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.172569</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="C581" t="n">
+        <v>100</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.176023</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="C582" t="n">
+        <v>100</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.176898</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="C583" t="n">
+        <v>100</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.180558</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="C584" t="n">
+        <v>100</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.18421</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="C585" t="n">
+        <v>100</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.182909</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C586" t="n">
+        <v>100</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0.180312</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C587" t="n">
+        <v>100</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.179385</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C588" t="n">
+        <v>100</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.176474</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C589" t="n">
+        <v>100</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.172235</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C590" t="n">
+        <v>100</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.177359</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="C591" t="n">
+        <v>100</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.179824</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="C592" t="n">
+        <v>100</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.179966</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C593" t="n">
+        <v>100</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.179626</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C594" t="n">
+        <v>100</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.181544</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>45080</v>
+      </c>
+      <c r="C595" t="n">
+        <v>100</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.180236</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="C596" t="n">
+        <v>100</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.181579</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C597" t="n">
+        <v>100</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.181944</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C598" t="n">
+        <v>100</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.187965</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C599" t="n">
+        <v>100</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.186514</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C600" t="n">
+        <v>100</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.186227</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C601" t="n">
+        <v>100</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.188379</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C602" t="n">
+        <v>100</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0.189384</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="C603" t="n">
+        <v>100</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0.190113</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C604" t="n">
+        <v>100</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0.20614</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="C605" t="n">
+        <v>100</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0.202521</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>45129</v>
+      </c>
+      <c r="C606" t="n">
+        <v>100</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.203574</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C607" t="n">
+        <v>100</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0.205511</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="C608" t="n">
+        <v>100</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0.211376</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="C609" t="n">
+        <v>100</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.215242</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="C610" t="n">
+        <v>100</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.217959</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C611" t="n">
+        <v>100</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.220674</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>45157</v>
+      </c>
+      <c r="C612" t="n">
+        <v>100</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.201655</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="C613" t="n">
+        <v>100</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.20807</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C614" t="n">
+        <v>100</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.207889</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C615" t="n">
+        <v>100</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.208769</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C616" t="n">
+        <v>100</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.212261</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C617" t="n">
+        <v>100</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.210825</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C618" t="n">
+        <v>100</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0.204596</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C619" t="n">
+        <v>100</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0.208424</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C620" t="n">
+        <v>100</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0.207252</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C621" t="n">
+        <v>100</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0.202305</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C622" t="n">
+        <v>100</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0.203042</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C623" t="n">
+        <v>100</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0.202353</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C624" t="n">
+        <v>100</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0.207555</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C625" t="n">
+        <v>100</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.207521</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C626" t="n">
+        <v>100</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.208393</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C627" t="n">
+        <v>100</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.210479</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="C628" t="n">
+        <v>100</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.203437</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C629" t="n">
+        <v>100</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0.204084</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C630" t="n">
+        <v>100</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.200053</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C631" t="n">
+        <v>100</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.195339</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C632" t="n">
+        <v>100</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0.195752</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C633" t="n">
+        <v>100</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.199834</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C634" t="n">
+        <v>100</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.196675</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C635" t="n">
+        <v>100</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.195877</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C636" t="n">
+        <v>100</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.192721</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C637" t="n">
+        <v>100</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.189965</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C638" t="n">
+        <v>100</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.192063</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C639" t="n">
+        <v>100</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.192583</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C640" t="n">
+        <v>100</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.191549</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C641" t="n">
+        <v>100</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.201242</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C642" t="n">
+        <v>100</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.196863</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C643" t="n">
+        <v>100</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.201031</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C644" t="n">
+        <v>100</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.198253</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C645" t="n">
+        <v>100</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.197708</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C646" t="n">
+        <v>100</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.199391</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C647" t="n">
+        <v>100</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.195839</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C648" t="n">
+        <v>100</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.194501</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C649" t="n">
+        <v>100</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.194264</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C650" t="n">
+        <v>100</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.195741</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C651" t="n">
+        <v>100</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.195477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D651"/>
+  <dimension ref="A1:D653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7568,1990 +7568,2018 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2</v>
+        <v>508</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44574</v>
+        <v>45321</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.171367</v>
+        <v>0.199246</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C651" t="n">
+        <v>100</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.195741</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
         <v>503</v>
       </c>
-      <c r="B651" s="2" t="n">
+      <c r="B652" s="2" t="n">
         <v>45314</v>
       </c>
-      <c r="C651" t="n">
-        <v>100</v>
-      </c>
-      <c r="D651" t="n">
+      <c r="C652" t="n">
+        <v>100</v>
+      </c>
+      <c r="D652" t="n">
         <v>0.195477</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C653" t="n">
+        <v>100</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.199035</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D653"/>
+  <dimension ref="A1:D654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7582,2003 +7582,2017 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2</v>
+        <v>509</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44574</v>
+        <v>45322</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.171367</v>
+        <v>0.198428</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C653" t="n">
+        <v>100</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.195477</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B653" s="2" t="n">
+      <c r="B654" s="2" t="n">
         <v>45317</v>
       </c>
-      <c r="C653" t="n">
-        <v>100</v>
-      </c>
-      <c r="D653" t="n">
+      <c r="C654" t="n">
+        <v>100</v>
+      </c>
+      <c r="D654" t="n">
         <v>0.199035</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D654"/>
+  <dimension ref="A1:D655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7596,2003 +7596,2017 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2</v>
+        <v>510</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44574</v>
+        <v>45323</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.171367</v>
+        <v>0.200075</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C654" t="n">
+        <v>100</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0.195477</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B654" s="2" t="n">
+      <c r="B655" s="2" t="n">
         <v>45317</v>
       </c>
-      <c r="C654" t="n">
-        <v>100</v>
-      </c>
-      <c r="D654" t="n">
+      <c r="C655" t="n">
+        <v>100</v>
+      </c>
+      <c r="D655" t="n">
         <v>0.199035</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D655"/>
+  <dimension ref="A1:D656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7610,2003 +7610,2017 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2</v>
+        <v>511</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44574</v>
+        <v>45324</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.171367</v>
+        <v>0.201523</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C655" t="n">
+        <v>100</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.195477</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B655" s="2" t="n">
+      <c r="B656" s="2" t="n">
         <v>45317</v>
       </c>
-      <c r="C655" t="n">
-        <v>100</v>
-      </c>
-      <c r="D655" t="n">
+      <c r="C656" t="n">
+        <v>100</v>
+      </c>
+      <c r="D656" t="n">
         <v>0.199035</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D656"/>
+  <dimension ref="A1:D657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7624,2003 +7624,2017 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2</v>
+        <v>512</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44574</v>
+        <v>45325</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.171367</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C656" t="n">
+        <v>100</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0.195477</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B656" s="2" t="n">
+      <c r="B657" s="2" t="n">
         <v>45317</v>
       </c>
-      <c r="C656" t="n">
-        <v>100</v>
-      </c>
-      <c r="D656" t="n">
+      <c r="C657" t="n">
+        <v>100</v>
+      </c>
+      <c r="D657" t="n">
         <v>0.199035</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D657"/>
+  <dimension ref="A1:D659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7638,2004 +7638,2032 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2</v>
+        <v>513</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44574</v>
+        <v>45328</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.171367</v>
+        <v>0.202206</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C657" t="n">
+        <v>100</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0.195477</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B657" s="2" t="n">
+      <c r="B658" s="2" t="n">
         <v>45317</v>
       </c>
-      <c r="C657" t="n">
-        <v>100</v>
-      </c>
-      <c r="D657" t="n">
+      <c r="C658" t="n">
+        <v>100</v>
+      </c>
+      <c r="D658" t="n">
         <v>0.199035</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C659" t="n">
+        <v>100</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.201634</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D659"/>
+  <dimension ref="A1:D660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7652,2017 +7652,2031 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2</v>
+        <v>514</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44574</v>
+        <v>45329</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.171367</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C659" t="n">
+        <v>100</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.199035</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="B659" s="2" t="n">
+      <c r="B660" s="2" t="n">
         <v>45325</v>
       </c>
-      <c r="C659" t="n">
-        <v>100</v>
-      </c>
-      <c r="D659" t="n">
+      <c r="C660" t="n">
+        <v>100</v>
+      </c>
+      <c r="D660" t="n">
         <v>0.201634</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D660"/>
+  <dimension ref="A1:D662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7666,2018 +7666,2046 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2</v>
+        <v>515</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44574</v>
+        <v>45330</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.171367</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C660" t="n">
+        <v>100</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0.199035</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="B660" s="2" t="n">
+      <c r="B661" s="2" t="n">
         <v>45325</v>
       </c>
-      <c r="C660" t="n">
-        <v>100</v>
-      </c>
-      <c r="D660" t="n">
+      <c r="C661" t="n">
+        <v>100</v>
+      </c>
+      <c r="D661" t="n">
         <v>0.201634</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C662" t="n">
+        <v>100</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.200115</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D662"/>
+  <dimension ref="A1:D664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7680,2032 +7680,2060 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2</v>
+        <v>516</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44574</v>
+        <v>45331</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.171367</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C662" t="n">
+        <v>100</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.201634</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="B662" s="2" t="n">
+      <c r="B663" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="C662" t="n">
-        <v>100</v>
-      </c>
-      <c r="D662" t="n">
+      <c r="C663" t="n">
+        <v>100</v>
+      </c>
+      <c r="D663" t="n">
         <v>0.200115</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C664" t="n">
+        <v>100</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.200513</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D664"/>
+  <dimension ref="A1:D666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7694,2046 +7694,2074 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2</v>
+        <v>517</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44574</v>
+        <v>45332</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.171367</v>
+        <v>0.201826</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C664" t="n">
+        <v>100</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.200115</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
         <v>515</v>
       </c>
-      <c r="B664" s="2" t="n">
+      <c r="B665" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="C664" t="n">
-        <v>100</v>
-      </c>
-      <c r="D664" t="n">
+      <c r="C665" t="n">
+        <v>100</v>
+      </c>
+      <c r="D665" t="n">
         <v>0.200513</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C666" t="n">
+        <v>100</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.201832</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D666"/>
+  <dimension ref="A1:D667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7708,2059 +7708,2073 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2</v>
+        <v>518</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44574</v>
+        <v>45335</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.171367</v>
+        <v>0.203703</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C666" t="n">
+        <v>100</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.200513</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
         <v>516</v>
       </c>
-      <c r="B666" s="2" t="n">
+      <c r="B667" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="C666" t="n">
-        <v>100</v>
-      </c>
-      <c r="D666" t="n">
+      <c r="C667" t="n">
+        <v>100</v>
+      </c>
+      <c r="D667" t="n">
         <v>0.201832</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D667"/>
+  <dimension ref="A1:D668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7722,2059 +7722,2073 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2</v>
+        <v>519</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44574</v>
+        <v>45336</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.171367</v>
+        <v>0.204167</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C667" t="n">
+        <v>100</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0.200513</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
         <v>516</v>
       </c>
-      <c r="B667" s="2" t="n">
+      <c r="B668" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="C667" t="n">
-        <v>100</v>
-      </c>
-      <c r="D667" t="n">
+      <c r="C668" t="n">
+        <v>100</v>
+      </c>
+      <c r="D668" t="n">
         <v>0.201832</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D668"/>
+  <dimension ref="A1:D670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7736,2060 +7736,2088 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44574</v>
+        <v>45337</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.171367</v>
+        <v>0.204093</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C668" t="n">
+        <v>100</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0.200513</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
         <v>516</v>
       </c>
-      <c r="B668" s="2" t="n">
+      <c r="B669" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="C668" t="n">
-        <v>100</v>
-      </c>
-      <c r="D668" t="n">
+      <c r="C669" t="n">
+        <v>100</v>
+      </c>
+      <c r="D669" t="n">
         <v>0.201832</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C670" t="n">
+        <v>100</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.204093</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D670"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7750,2073 +7750,2087 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44574</v>
+        <v>45338</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.171367</v>
+        <v>0.205344</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C670" t="n">
+        <v>100</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.201832</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
         <v>520</v>
       </c>
-      <c r="B670" s="2" t="n">
+      <c r="B671" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="C670" t="n">
-        <v>100</v>
-      </c>
-      <c r="D670" t="n">
+      <c r="C671" t="n">
+        <v>100</v>
+      </c>
+      <c r="D671" t="n">
         <v>0.204093</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D671"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7764,2074 +7764,2102 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2</v>
+        <v>522</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44574</v>
+        <v>45339</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.171367</v>
+        <v>0.206555</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C671" t="n">
+        <v>100</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.201832</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
         <v>520</v>
       </c>
-      <c r="B671" s="2" t="n">
+      <c r="B672" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="C671" t="n">
-        <v>100</v>
-      </c>
-      <c r="D671" t="n">
+      <c r="C672" t="n">
+        <v>100</v>
+      </c>
+      <c r="D672" t="n">
         <v>0.204093</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C673" t="n">
+        <v>100</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.205344</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7778,2087 +7778,2101 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2</v>
+        <v>523</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44574</v>
+        <v>45342</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.171367</v>
+        <v>0.20596</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C673" t="n">
+        <v>100</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.204093</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B673" s="2" t="n">
+      <c r="B674" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="C673" t="n">
-        <v>100</v>
-      </c>
-      <c r="D673" t="n">
+      <c r="C674" t="n">
+        <v>100</v>
+      </c>
+      <c r="D674" t="n">
         <v>0.205344</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D674"/>
+  <dimension ref="A1:D675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7792,2087 +7792,2101 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2</v>
+        <v>524</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44574</v>
+        <v>45343</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.171367</v>
+        <v>0.205156</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C674" t="n">
+        <v>100</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.204093</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B674" s="2" t="n">
+      <c r="B675" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="C674" t="n">
-        <v>100</v>
-      </c>
-      <c r="D674" t="n">
+      <c r="C675" t="n">
+        <v>100</v>
+      </c>
+      <c r="D675" t="n">
         <v>0.205344</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D675"/>
+  <dimension ref="A1:D676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7806,2087 +7806,2101 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2</v>
+        <v>525</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44574</v>
+        <v>45344</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.171367</v>
+        <v>0.204086</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C675" t="n">
+        <v>100</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.204093</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B675" s="2" t="n">
+      <c r="B676" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="C675" t="n">
-        <v>100</v>
-      </c>
-      <c r="D675" t="n">
+      <c r="C676" t="n">
+        <v>100</v>
+      </c>
+      <c r="D676" t="n">
         <v>0.205344</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D676"/>
+  <dimension ref="A1:D677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7820,2087 +7820,2101 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44574</v>
+        <v>45345</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.171367</v>
+        <v>0.20575</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C675" t="n">
         <v>100</v>
       </c>
       <c r="D675" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C676" t="n">
+        <v>100</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.204093</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B676" s="2" t="n">
+      <c r="B677" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="C676" t="n">
-        <v>100</v>
-      </c>
-      <c r="D676" t="n">
+      <c r="C677" t="n">
+        <v>100</v>
+      </c>
+      <c r="D677" t="n">
         <v>0.205344</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D677"/>
+  <dimension ref="A1:D678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7834,2087 +7834,2101 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2</v>
+        <v>527</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44574</v>
+        <v>45349</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.171367</v>
+        <v>0.205904</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C675" t="n">
         <v>100</v>
       </c>
       <c r="D675" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C676" t="n">
         <v>100</v>
       </c>
       <c r="D676" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C677" t="n">
+        <v>100</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.204093</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B677" s="2" t="n">
+      <c r="B678" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="C677" t="n">
-        <v>100</v>
-      </c>
-      <c r="D677" t="n">
+      <c r="C678" t="n">
+        <v>100</v>
+      </c>
+      <c r="D678" t="n">
         <v>0.205344</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D678"/>
+  <dimension ref="A1:D680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7848,2088 +7848,2116 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44574</v>
+        <v>45350</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.171367</v>
+        <v>0.204557</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C675" t="n">
         <v>100</v>
       </c>
       <c r="D675" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C676" t="n">
         <v>100</v>
       </c>
       <c r="D676" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B677" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C677" t="n">
         <v>100</v>
       </c>
       <c r="D677" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C678" t="n">
+        <v>100</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0.204093</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B678" s="2" t="n">
+      <c r="B679" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="C678" t="n">
-        <v>100</v>
-      </c>
-      <c r="D678" t="n">
+      <c r="C679" t="n">
+        <v>100</v>
+      </c>
+      <c r="D679" t="n">
         <v>0.205344</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C680" t="n">
+        <v>100</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.205904</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D680"/>
+  <dimension ref="A1:D681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7862,2101 +7862,2115 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2</v>
+        <v>529</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44574</v>
+        <v>45351</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.171367</v>
+        <v>0.204659</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C675" t="n">
         <v>100</v>
       </c>
       <c r="D675" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C676" t="n">
         <v>100</v>
       </c>
       <c r="D676" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B677" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C677" t="n">
         <v>100</v>
       </c>
       <c r="D677" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B678" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C678" t="n">
         <v>100</v>
       </c>
       <c r="D678" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B679" s="2" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="C679" t="n">
         <v>100</v>
       </c>
       <c r="D679" t="n">
-        <v>0.205344</v>
+        <v>0.204093</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C680" t="n">
+        <v>100</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.205344</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
         <v>527</v>
       </c>
-      <c r="B680" s="2" t="n">
+      <c r="B681" s="2" t="n">
         <v>45349</v>
       </c>
-      <c r="C680" t="n">
-        <v>100</v>
-      </c>
-      <c r="D680" t="n">
+      <c r="C681" t="n">
+        <v>100</v>
+      </c>
+      <c r="D681" t="n">
         <v>0.205904</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D681"/>
+  <dimension ref="A1:D682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7876,2101 +7876,2115 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2</v>
+        <v>530</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44574</v>
+        <v>45352</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.171367</v>
+        <v>0.201286</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C675" t="n">
         <v>100</v>
       </c>
       <c r="D675" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C676" t="n">
         <v>100</v>
       </c>
       <c r="D676" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B677" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C677" t="n">
         <v>100</v>
       </c>
       <c r="D677" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B678" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C678" t="n">
         <v>100</v>
       </c>
       <c r="D678" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B679" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C679" t="n">
         <v>100</v>
       </c>
       <c r="D679" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B680" s="2" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="C680" t="n">
         <v>100</v>
       </c>
       <c r="D680" t="n">
-        <v>0.205344</v>
+        <v>0.204093</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B681" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C681" t="n">
+        <v>100</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.205344</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
         <v>527</v>
       </c>
-      <c r="B681" s="2" t="n">
+      <c r="B682" s="2" t="n">
         <v>45349</v>
       </c>
-      <c r="C681" t="n">
-        <v>100</v>
-      </c>
-      <c r="D681" t="n">
+      <c r="C682" t="n">
+        <v>100</v>
+      </c>
+      <c r="D682" t="n">
         <v>0.205904</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D682"/>
+  <dimension ref="A1:D683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7890,2101 +7890,2115 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2</v>
+        <v>531</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44574</v>
+        <v>45353</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.171367</v>
+        <v>0.202689</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C675" t="n">
         <v>100</v>
       </c>
       <c r="D675" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C676" t="n">
         <v>100</v>
       </c>
       <c r="D676" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B677" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C677" t="n">
         <v>100</v>
       </c>
       <c r="D677" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B678" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C678" t="n">
         <v>100</v>
       </c>
       <c r="D678" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B679" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C679" t="n">
         <v>100</v>
       </c>
       <c r="D679" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B680" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C680" t="n">
         <v>100</v>
       </c>
       <c r="D680" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B681" s="2" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="C681" t="n">
         <v>100</v>
       </c>
       <c r="D681" t="n">
-        <v>0.205344</v>
+        <v>0.204093</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B682" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C682" t="n">
+        <v>100</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.205344</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
         <v>527</v>
       </c>
-      <c r="B682" s="2" t="n">
+      <c r="B683" s="2" t="n">
         <v>45349</v>
       </c>
-      <c r="C682" t="n">
-        <v>100</v>
-      </c>
-      <c r="D682" t="n">
+      <c r="C683" t="n">
+        <v>100</v>
+      </c>
+      <c r="D683" t="n">
         <v>0.205904</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D683"/>
+  <dimension ref="A1:D685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7904,2102 +7904,2130 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2</v>
+        <v>532</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44574</v>
+        <v>45356</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.171367</v>
+        <v>0.202544</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45022</v>
+        <v>45021</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.176898</v>
+        <v>0.176023</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B607" s="2" t="n">
-        <v>45023</v>
+        <v>45022</v>
       </c>
       <c r="C607" t="n">
         <v>100</v>
       </c>
       <c r="D607" t="n">
-        <v>0.180558</v>
+        <v>0.176898</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B608" s="2" t="n">
-        <v>45024</v>
+        <v>45023</v>
       </c>
       <c r="C608" t="n">
         <v>100</v>
       </c>
       <c r="D608" t="n">
-        <v>0.18421</v>
+        <v>0.180558</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B609" s="2" t="n">
-        <v>45029</v>
+        <v>45024</v>
       </c>
       <c r="C609" t="n">
         <v>100</v>
       </c>
       <c r="D609" t="n">
-        <v>0.182909</v>
+        <v>0.18421</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B610" s="2" t="n">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C610" t="n">
         <v>100</v>
       </c>
       <c r="D610" t="n">
-        <v>0.180312</v>
+        <v>0.182909</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B611" s="2" t="n">
-        <v>45043</v>
+        <v>45030</v>
       </c>
       <c r="C611" t="n">
         <v>100</v>
       </c>
       <c r="D611" t="n">
-        <v>0.179385</v>
+        <v>0.180312</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B612" s="2" t="n">
-        <v>45045</v>
+        <v>45043</v>
       </c>
       <c r="C612" t="n">
         <v>100</v>
       </c>
       <c r="D612" t="n">
-        <v>0.176474</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B613" s="2" t="n">
-        <v>45057</v>
+        <v>45045</v>
       </c>
       <c r="C613" t="n">
         <v>100</v>
       </c>
       <c r="D613" t="n">
-        <v>0.172235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B614" s="2" t="n">
-        <v>45062</v>
+        <v>45057</v>
       </c>
       <c r="C614" t="n">
         <v>100</v>
       </c>
       <c r="D614" t="n">
-        <v>0.177359</v>
+        <v>0.172235</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B615" s="2" t="n">
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="C615" t="n">
         <v>100</v>
       </c>
       <c r="D615" t="n">
-        <v>0.179824</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>45072</v>
+        <v>45064</v>
       </c>
       <c r="C616" t="n">
         <v>100</v>
       </c>
       <c r="D616" t="n">
-        <v>0.179966</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B617" s="2" t="n">
-        <v>45076</v>
+        <v>45072</v>
       </c>
       <c r="C617" t="n">
         <v>100</v>
       </c>
       <c r="D617" t="n">
-        <v>0.179626</v>
+        <v>0.179966</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B618" s="2" t="n">
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="C618" t="n">
         <v>100</v>
       </c>
       <c r="D618" t="n">
-        <v>0.181544</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B619" s="2" t="n">
-        <v>45080</v>
+        <v>45077</v>
       </c>
       <c r="C619" t="n">
         <v>100</v>
       </c>
       <c r="D619" t="n">
-        <v>0.180236</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B620" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="C620" t="n">
         <v>100</v>
       </c>
       <c r="D620" t="n">
-        <v>0.181579</v>
+        <v>0.180236</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B621" s="2" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C621" t="n">
         <v>100</v>
       </c>
       <c r="D621" t="n">
-        <v>0.181944</v>
+        <v>0.181579</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B622" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="C622" t="n">
         <v>100</v>
       </c>
       <c r="D622" t="n">
-        <v>0.187965</v>
+        <v>0.181944</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="C623" t="n">
         <v>100</v>
       </c>
       <c r="D623" t="n">
-        <v>0.186514</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B624" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="C624" t="n">
         <v>100</v>
       </c>
       <c r="D624" t="n">
-        <v>0.186227</v>
+        <v>0.186514</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B625" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="C625" t="n">
         <v>100</v>
       </c>
       <c r="D625" t="n">
-        <v>0.188379</v>
+        <v>0.186227</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C626" t="n">
         <v>100</v>
       </c>
       <c r="D626" t="n">
-        <v>0.189384</v>
+        <v>0.188379</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B627" s="2" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="C627" t="n">
         <v>100</v>
       </c>
       <c r="D627" t="n">
-        <v>0.190113</v>
+        <v>0.189384</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B628" s="2" t="n">
-        <v>45118</v>
+        <v>45106</v>
       </c>
       <c r="C628" t="n">
         <v>100</v>
       </c>
       <c r="D628" t="n">
-        <v>0.20614</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>45125</v>
+        <v>45118</v>
       </c>
       <c r="C629" t="n">
         <v>100</v>
       </c>
       <c r="D629" t="n">
-        <v>0.202521</v>
+        <v>0.20614</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B630" s="2" t="n">
-        <v>45129</v>
+        <v>45125</v>
       </c>
       <c r="C630" t="n">
         <v>100</v>
       </c>
       <c r="D630" t="n">
-        <v>0.203574</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B631" s="2" t="n">
-        <v>45139</v>
+        <v>45129</v>
       </c>
       <c r="C631" t="n">
         <v>100</v>
       </c>
       <c r="D631" t="n">
-        <v>0.205511</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B632" s="2" t="n">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C632" t="n">
         <v>100</v>
       </c>
       <c r="D632" t="n">
-        <v>0.211376</v>
+        <v>0.205511</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B633" s="2" t="n">
-        <v>45147</v>
+        <v>45142</v>
       </c>
       <c r="C633" t="n">
         <v>100</v>
       </c>
       <c r="D633" t="n">
-        <v>0.215242</v>
+        <v>0.211376</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>45149</v>
+        <v>45147</v>
       </c>
       <c r="C634" t="n">
         <v>100</v>
       </c>
       <c r="D634" t="n">
-        <v>0.217959</v>
+        <v>0.215242</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>45150</v>
+        <v>45149</v>
       </c>
       <c r="C635" t="n">
         <v>100</v>
       </c>
       <c r="D635" t="n">
-        <v>0.220674</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B636" s="2" t="n">
-        <v>45157</v>
+        <v>45150</v>
       </c>
       <c r="C636" t="n">
         <v>100</v>
       </c>
       <c r="D636" t="n">
-        <v>0.201655</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B637" s="2" t="n">
-        <v>45161</v>
+        <v>45157</v>
       </c>
       <c r="C637" t="n">
         <v>100</v>
       </c>
       <c r="D637" t="n">
-        <v>0.20807</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B638" s="2" t="n">
-        <v>45169</v>
+        <v>45161</v>
       </c>
       <c r="C638" t="n">
         <v>100</v>
       </c>
       <c r="D638" t="n">
-        <v>0.207889</v>
+        <v>0.20807</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B639" s="2" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="C639" t="n">
         <v>100</v>
       </c>
       <c r="D639" t="n">
-        <v>0.208769</v>
+        <v>0.207889</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B640" s="2" t="n">
-        <v>45175</v>
+        <v>45170</v>
       </c>
       <c r="C640" t="n">
         <v>100</v>
       </c>
       <c r="D640" t="n">
-        <v>0.212261</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B641" s="2" t="n">
-        <v>45178</v>
+        <v>45175</v>
       </c>
       <c r="C641" t="n">
         <v>100</v>
       </c>
       <c r="D641" t="n">
-        <v>0.210825</v>
+        <v>0.212261</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B642" s="2" t="n">
-        <v>45182</v>
+        <v>45178</v>
       </c>
       <c r="C642" t="n">
         <v>100</v>
       </c>
       <c r="D642" t="n">
-        <v>0.204596</v>
+        <v>0.210825</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B643" s="2" t="n">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="C643" t="n">
         <v>100</v>
       </c>
       <c r="D643" t="n">
-        <v>0.208424</v>
+        <v>0.204596</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B644" s="2" t="n">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C644" t="n">
         <v>100</v>
       </c>
       <c r="D644" t="n">
-        <v>0.207252</v>
+        <v>0.208424</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>45195</v>
+        <v>45184</v>
       </c>
       <c r="C645" t="n">
         <v>100</v>
       </c>
       <c r="D645" t="n">
-        <v>0.202305</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B646" s="2" t="n">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="C646" t="n">
         <v>100</v>
       </c>
       <c r="D646" t="n">
-        <v>0.203042</v>
+        <v>0.202305</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B647" s="2" t="n">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="C647" t="n">
         <v>100</v>
       </c>
       <c r="D647" t="n">
-        <v>0.202353</v>
+        <v>0.203042</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B648" s="2" t="n">
-        <v>45202</v>
+        <v>45197</v>
       </c>
       <c r="C648" t="n">
         <v>100</v>
       </c>
       <c r="D648" t="n">
-        <v>0.207555</v>
+        <v>0.202353</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B649" s="2" t="n">
-        <v>45203</v>
+        <v>45202</v>
       </c>
       <c r="C649" t="n">
         <v>100</v>
       </c>
       <c r="D649" t="n">
-        <v>0.207521</v>
+        <v>0.207555</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B650" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="C650" t="n">
         <v>100</v>
       </c>
       <c r="D650" t="n">
-        <v>0.208393</v>
+        <v>0.207521</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B651" s="2" t="n">
-        <v>45206</v>
+        <v>45204</v>
       </c>
       <c r="C651" t="n">
         <v>100</v>
       </c>
       <c r="D651" t="n">
-        <v>0.210479</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B652" s="2" t="n">
-        <v>45212</v>
+        <v>45206</v>
       </c>
       <c r="C652" t="n">
         <v>100</v>
       </c>
       <c r="D652" t="n">
-        <v>0.203437</v>
+        <v>0.210479</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B653" s="2" t="n">
-        <v>45218</v>
+        <v>45212</v>
       </c>
       <c r="C653" t="n">
         <v>100</v>
       </c>
       <c r="D653" t="n">
-        <v>0.204084</v>
+        <v>0.203437</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B654" s="2" t="n">
-        <v>45220</v>
+        <v>45218</v>
       </c>
       <c r="C654" t="n">
         <v>100</v>
       </c>
       <c r="D654" t="n">
-        <v>0.200053</v>
+        <v>0.204084</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B655" s="2" t="n">
-        <v>45224</v>
+        <v>45220</v>
       </c>
       <c r="C655" t="n">
         <v>100</v>
       </c>
       <c r="D655" t="n">
-        <v>0.195339</v>
+        <v>0.200053</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B656" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="C656" t="n">
         <v>100</v>
       </c>
       <c r="D656" t="n">
-        <v>0.195752</v>
+        <v>0.195339</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B657" s="2" t="n">
-        <v>45238</v>
+        <v>45225</v>
       </c>
       <c r="C657" t="n">
         <v>100</v>
       </c>
       <c r="D657" t="n">
-        <v>0.199834</v>
+        <v>0.195752</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B658" s="2" t="n">
-        <v>45241</v>
+        <v>45238</v>
       </c>
       <c r="C658" t="n">
         <v>100</v>
       </c>
       <c r="D658" t="n">
-        <v>0.196675</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B659" s="2" t="n">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="C659" t="n">
         <v>100</v>
       </c>
       <c r="D659" t="n">
-        <v>0.195877</v>
+        <v>0.196675</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C660" t="n">
         <v>100</v>
       </c>
       <c r="D660" t="n">
-        <v>0.192721</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>45252</v>
+        <v>45247</v>
       </c>
       <c r="C661" t="n">
         <v>100</v>
       </c>
       <c r="D661" t="n">
-        <v>0.189965</v>
+        <v>0.192721</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B662" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="C662" t="n">
         <v>100</v>
       </c>
       <c r="D662" t="n">
-        <v>0.192063</v>
+        <v>0.189965</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B663" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="C663" t="n">
         <v>100</v>
       </c>
       <c r="D663" t="n">
-        <v>0.192583</v>
+        <v>0.192063</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>45258</v>
+        <v>45255</v>
       </c>
       <c r="C664" t="n">
         <v>100</v>
       </c>
       <c r="D664" t="n">
-        <v>0.191549</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B665" s="2" t="n">
-        <v>45267</v>
+        <v>45258</v>
       </c>
       <c r="C665" t="n">
         <v>100</v>
       </c>
       <c r="D665" t="n">
-        <v>0.201242</v>
+        <v>0.191549</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B666" s="2" t="n">
-        <v>45276</v>
+        <v>45267</v>
       </c>
       <c r="C666" t="n">
         <v>100</v>
       </c>
       <c r="D666" t="n">
-        <v>0.196863</v>
+        <v>0.201242</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>45282</v>
+        <v>45276</v>
       </c>
       <c r="C667" t="n">
         <v>100</v>
       </c>
       <c r="D667" t="n">
-        <v>0.201031</v>
+        <v>0.196863</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B668" s="2" t="n">
-        <v>45289</v>
+        <v>45282</v>
       </c>
       <c r="C668" t="n">
         <v>100</v>
       </c>
       <c r="D668" t="n">
-        <v>0.198253</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B669" s="2" t="n">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="C669" t="n">
         <v>100</v>
       </c>
       <c r="D669" t="n">
-        <v>0.197708</v>
+        <v>0.198253</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B670" s="2" t="n">
-        <v>45301</v>
+        <v>45290</v>
       </c>
       <c r="C670" t="n">
         <v>100</v>
       </c>
       <c r="D670" t="n">
-        <v>0.199391</v>
+        <v>0.197708</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B671" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="C671" t="n">
         <v>100</v>
       </c>
       <c r="D671" t="n">
-        <v>0.195839</v>
+        <v>0.199391</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B672" s="2" t="n">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C672" t="n">
         <v>100</v>
       </c>
       <c r="D672" t="n">
-        <v>0.194501</v>
+        <v>0.195839</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B673" s="2" t="n">
-        <v>45307</v>
+        <v>45304</v>
       </c>
       <c r="C673" t="n">
         <v>100</v>
       </c>
       <c r="D673" t="n">
-        <v>0.194264</v>
+        <v>0.194501</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>45310</v>
+        <v>45307</v>
       </c>
       <c r="C674" t="n">
         <v>100</v>
       </c>
       <c r="D674" t="n">
-        <v>0.195741</v>
+        <v>0.194264</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B675" s="2" t="n">
-        <v>45314</v>
+        <v>45310</v>
       </c>
       <c r="C675" t="n">
         <v>100</v>
       </c>
       <c r="D675" t="n">
-        <v>0.195477</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B676" s="2" t="n">
-        <v>45317</v>
+        <v>45314</v>
       </c>
       <c r="C676" t="n">
         <v>100</v>
       </c>
       <c r="D676" t="n">
-        <v>0.199035</v>
+        <v>0.195477</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B677" s="2" t="n">
-        <v>45325</v>
+        <v>45317</v>
       </c>
       <c r="C677" t="n">
         <v>100</v>
       </c>
       <c r="D677" t="n">
-        <v>0.201634</v>
+        <v>0.199035</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B678" s="2" t="n">
-        <v>45329</v>
+        <v>45325</v>
       </c>
       <c r="C678" t="n">
         <v>100</v>
       </c>
       <c r="D678" t="n">
-        <v>0.200115</v>
+        <v>0.201634</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B679" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="C679" t="n">
         <v>100</v>
       </c>
       <c r="D679" t="n">
-        <v>0.200513</v>
+        <v>0.200115</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B680" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="C680" t="n">
         <v>100</v>
       </c>
       <c r="D680" t="n">
-        <v>0.201832</v>
+        <v>0.200513</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B681" s="2" t="n">
-        <v>45337</v>
+        <v>45331</v>
       </c>
       <c r="C681" t="n">
         <v>100</v>
       </c>
       <c r="D681" t="n">
-        <v>0.204093</v>
+        <v>0.201832</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B682" s="2" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="C682" t="n">
         <v>100</v>
       </c>
       <c r="D682" t="n">
-        <v>0.205344</v>
+        <v>0.204093</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C683" t="n">
+        <v>100</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.205344</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
         <v>527</v>
       </c>
-      <c r="B683" s="2" t="n">
+      <c r="B684" s="2" t="n">
         <v>45349</v>
       </c>
-      <c r="C683" t="n">
-        <v>100</v>
-      </c>
-      <c r="D683" t="n">
+      <c r="C684" t="n">
+        <v>100</v>
+      </c>
+      <c r="D684" t="n">
         <v>0.205904</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C685" t="n">
+        <v>100</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0.202689</v>
       </c>
     </row>
   </sheetData>

--- a/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
+++ b/LME/parser_beta/data/centrobank/Kazakhstan_Tenge.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D685"/>
+  <dimension ref="A1:D686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7918,2115 +7918,2129 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2</v>
+        <v>533</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44574</v>
+        <v>45357</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.171367</v>
+        <v>0.201082</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.174625</v>
+        <v>0.171367</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.175964</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.175815</v>
+        <v>0.175964</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.180165</v>
+        <v>0.175815</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.181167</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.176308</v>
+        <v>0.181167</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.175942</v>
+        <v>0.176308</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44600</v>
+        <v>44597</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.175695</v>
+        <v>0.175942</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.17559</v>
+        <v>0.175965</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44608</v>
+        <v>44602</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.176945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44615</v>
+        <v>44608</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.184681</v>
+        <v>0.176945</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.180019</v>
+        <v>0.184681</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44622</v>
+        <v>44618</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.186621</v>
+        <v>0.180019</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44631</v>
+        <v>44622</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.231488</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44635</v>
+        <v>44631</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.224903</v>
+        <v>0.231488</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44637</v>
+        <v>44635</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.212006</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.206141</v>
+        <v>0.212006</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44650</v>
+        <v>44638</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.184763</v>
+        <v>0.206141</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44659</v>
+        <v>44650</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.164975</v>
+        <v>0.184763</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.175678</v>
+        <v>0.164975</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44680</v>
+        <v>44671</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.160817</v>
+        <v>0.175678</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44687</v>
+        <v>44680</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.151626</v>
+        <v>0.160817</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.157514</v>
+        <v>0.151626</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44701</v>
+        <v>44688</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.144221</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.136497</v>
+        <v>0.144221</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44728</v>
+        <v>44702</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.129983</v>
+        <v>0.136497</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44737</v>
+        <v>44728</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.114721</v>
+        <v>0.129983</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44743</v>
+        <v>44737</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.11291</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44756</v>
+        <v>44743</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.123647</v>
+        <v>0.11291</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.122411</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.120889</v>
+        <v>0.122411</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.117746</v>
+        <v>0.120889</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.119414</v>
+        <v>0.117746</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.123257</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44806</v>
+        <v>44769</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.127564</v>
+        <v>0.123257</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.12806</v>
+        <v>0.127564</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44814</v>
+        <v>44807</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.126649</v>
+        <v>0.12806</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44821</v>
+        <v>44814</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.126598</v>
+        <v>0.126649</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44828</v>
+        <v>44821</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.120718</v>
+        <v>0.126598</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44834</v>
+        <v>44828</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.119763</v>
+        <v>0.120718</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44838</v>
+        <v>44834</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.120758</v>
+        <v>0.119763</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.132007</v>
+        <v>0.120758</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.13453</v>
+        <v>0.132007</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44863</v>
+        <v>44846</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.132229</v>
+        <v>0.13453</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44877</v>
+        <v>44863</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.128281</v>
+        <v>0.132229</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44887</v>
+        <v>44877</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.132315</v>
+        <v>0.128281</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.132596</v>
+        <v>0.132315</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.134088</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44922</v>
+        <v>44902</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.148167</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.154848</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44943</v>
+        <v>44924</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.147719</v>
+        <v>0.154848</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44944</v>
+        <v>44943</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.148403</v>
+        <v>0.147719</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.14838</v>
+        <v>0.148403</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44959</v>
+        <v>44947</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.15227</v>
+        <v>0.14838</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.153037</v>
+        <v>0.15227</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.156629</v>
+        <v>0.153037</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.15998</v>
+        <v>0.156629</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44979</v>
+        <v>44967</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.167217</v>
+        <v>0.15998</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44980</v>
+        <v>44979</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.16764</v>
+        <v>0.167217</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44989</v>
+        <v>44980</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.173195</v>
+        <v>0.16764</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44992</v>
+        <v>44989</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.175078</v>
+        <v>0.173195</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.169202</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>45000</v>
+        <v>44999</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.164658</v>
+        <v>0.169202</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>45003</v>
+        <v>45000</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.164334</v>
+        <v>0.164658</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B601" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
       <c r="C601" t="n">
         <v>100</v>
       </c>
       <c r="D601" t="n">
-        <v>0.16763</v>
+        <v>0.164334</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B602" s="2" t="n">
-        <v>45010</v>
+        <v>45006</v>
       </c>
       <c r="C602" t="n">
         <v>100</v>
       </c>
       <c r="D602" t="n">
-        <v>0.165343</v>
+        <v>0.16763</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B603" s="2" t="n">
-        <v>45015</v>
+        <v>45010</v>
       </c>
       <c r="C603" t="n">
         <v>100</v>
       </c>
       <c r="D603" t="n">
-        <v>0.169183</v>
+        <v>0.165343</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B604" s="2" t="n">
-        <v>45016</v>
+        <v>45015</v>
       </c>
       <c r="C604" t="n">
         <v>100</v>
       </c>
       <c r="D604" t="n">
-        <v>0.171918</v>
+        <v>0.169183</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B605" s="2" t="n">
-        <v>45020</v>
+        <v>45016</v>
       </c>
       <c r="C605" t="n">
         <v>100</v>
       </c>
       <c r="D605" t="n">
-        <v>0.172569</v>
+        <v>0.171918</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="C606" t="n">
         <v>100</v>
       </c>
       <c r="D606" t="n">
-        <v>0.176023</v>
+        <v>0.172569</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B607" s="2" t